--- a/definition测试/【1】Tos2PP/inputSentence1.xlsx
+++ b/definition测试/【1】Tos2PP/inputSentence1.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="输出1" sheetId="2" r:id="rId2"/>
     <sheet name="输出2" sheetId="3" r:id="rId3"/>
+    <sheet name="ALL" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="680">
   <si>
     <t>name</t>
   </si>
@@ -2085,6 +2087,54 @@
   <si>
     <t xml:space="preserve">  should mention  </t>
   </si>
+  <si>
+    <t>need to be available</t>
+  </si>
+  <si>
+    <t>Description: Mixpanel may collect registration and other information about the Customer as Mixpanel鈥檚 customer through Mixpanel Sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  may collect  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  registration and other information about the Customer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  through Mixpanel Sites  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Privacy Policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adheres to </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collection of information from Users </t>
+  </si>
+  <si>
+    <t>must have and adhere to an appropriate Privacy Policy</t>
+  </si>
+  <si>
+    <t>Description: You must disclose the use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the use of Google Analytics and how it collects and processes data  </t>
+  </si>
+  <si>
+    <t>Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.</t>
+  </si>
+  <si>
+    <t>need to obtain permission</t>
+  </si>
+  <si>
+    <t>Description: The policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The policy  </t>
+  </si>
+  <si>
+    <t>Description: The policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.</t>
+  </si>
 </sst>
 </file>
 
@@ -2107,6 +2157,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2147,13 +2205,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2313,12 +2364,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2335,12 +2398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,19 +2772,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2736,7 +2793,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2760,16 +2817,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2778,127 +2835,133 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3249,285 +3312,283 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.71666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="107.716666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.575" style="6" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="81.75" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="60.75" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="157.5" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="49.5" customHeight="1" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="81.75" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="60.75" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="409.5" customHeight="1" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:3">
-      <c r="A12" s="10" t="s">
+    <row r="12" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="135.75" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="93" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="27.75" customHeight="1" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="81.75" customHeight="1" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="60.75" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A19" s="9" t="s">
+    <row r="19" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A29" s="15" t="s">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3556,64 +3617,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="M1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3990,7 +4051,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -4138,7 +4199,7 @@
       <c r="H10" t="s">
         <v>131</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="19" t="s">
         <v>132</v>
       </c>
       <c r="J10" t="s">
@@ -5291,127 +5352,127 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:20">
-      <c r="A29" s="2" t="s">
+    <row r="29" s="16" customFormat="1" spans="1:20">
+      <c r="A29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:20">
-      <c r="A30" s="2" t="s">
+      <c r="M29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" s="16" customFormat="1" spans="1:20">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T30" s="2" t="s">
+      <c r="L30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T30" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5663,189 +5724,189 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:20">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="17" customFormat="1" spans="1:20">
+      <c r="A35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="3" t="s">
+      <c r="H35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:20">
-      <c r="A36" s="3" t="s">
+      <c r="L35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" s="17" customFormat="1" spans="1:20">
+      <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="H36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:20">
-      <c r="A37" s="3" t="s">
+      <c r="L36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" s="17" customFormat="1" spans="1:20">
+      <c r="A37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="3" t="s">
+      <c r="H37" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T37" s="3" t="s">
+      <c r="M37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T37" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6097,65 +6158,65 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" spans="1:20">
-      <c r="A42" s="4" t="s">
+    <row r="42" s="18" customFormat="1" spans="1:20">
+      <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J42" s="4" t="s">
+      <c r="I42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T42" s="4" t="s">
+      <c r="L42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="T42" s="18" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7338,31 +7399,31 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="19" t="s">
         <v>385</v>
       </c>
       <c r="J62" t="s">
@@ -7771,65 +7832,65 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="1" spans="1:20">
-      <c r="A69" s="3" t="s">
+    <row r="69" s="17" customFormat="1" spans="1:20">
+      <c r="A69" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="C69" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="L69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T69" s="3" t="s">
+      <c r="L69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T69" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8081,127 +8142,127 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:20">
-      <c r="A74" s="3" t="s">
+    <row r="74" s="17" customFormat="1" spans="1:20">
+      <c r="A74" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="L74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:20">
-      <c r="A75" s="3" t="s">
+      <c r="L74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S74" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T74" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" s="17" customFormat="1" spans="1:20">
+      <c r="A75" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="J75" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K75" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T75" s="3" t="s">
+      <c r="M75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="S75" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="T75" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8464,8 +8525,8 @@
   <sheetPr/>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8475,40 +8536,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -11625,6 +11686,3356 @@
         <v>283</v>
       </c>
       <c r="L83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="36.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="57.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>393</v>
       </c>
     </row>
